--- a/eval/figures/sgx/desktop-applications-latency.xlsx
+++ b/eval/figures/sgx/desktop-applications-latency.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24210" windowHeight="13710" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24210" windowHeight="13710" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="GCC" sheetId="4" r:id="rId1"/>
@@ -17,16 +17,12 @@
     <sheet name="CURL" sheetId="9" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="31">
   <si>
     <t>Linux</t>
   </si>
@@ -111,6 +107,15 @@
   <si>
     <t>Size</t>
   </si>
+  <si>
+    <t>gzip.c (5kLoC)</t>
+  </si>
+  <si>
+    <t>oggenc.c (50kLoC)</t>
+  </si>
+  <si>
+    <t>gcc.c (500kLoC)</t>
+  </si>
 </sst>
 </file>
 
@@ -175,10 +180,6 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -186,6 +187,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,10 +229,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.32029748275437842"/>
-          <c:y val="0.17799322254529504"/>
-          <c:w val="0.64682332250674945"/>
-          <c:h val="0.61636906854963291"/>
+          <c:x val="0.28193885514463279"/>
+          <c:y val="0.17799332644013346"/>
+          <c:w val="0.69108342334426165"/>
+          <c:h val="0.69237870115242595"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -271,13 +276,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>2.2422154538441631E-5</c:v>
+                    <c:v>2.3569511195061986E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.3746970792335064E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8382861150907551E-5</c:v>
+                    <c:v>8.5934817637372109E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -289,13 +294,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>2.2422154538441631E-5</c:v>
+                    <c:v>2.3569511195061986E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.3746970792335064E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8382861150907551E-5</c:v>
+                    <c:v>8.5934817637372109E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -312,22 +317,21 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>GCC!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>gzip.c (5kLoC)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>oggenc.c (50kLoC)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>gcc.c (500kLoC)</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -397,13 +401,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.1710954531608665E-5</c:v>
+                    <c:v>7.5380452076698681E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.1658710725965246E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.9292831699673542E-5</c:v>
+                    <c:v>7.451163337653383E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -415,13 +419,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.1710954531608665E-5</c:v>
+                    <c:v>7.5380452076698681E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.1658710725965246E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.9292831699673542E-5</c:v>
+                    <c:v>7.451163337653383E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -438,22 +442,21 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>GCC!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>gzip.c (5kLoC)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>oggenc.c (50kLoC)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>gcc.c (500kLoC)</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -462,13 +465,13 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.7104764218081963E-2</c:v>
+                  <c:v>6.2224470360277007E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.9307136390105448E-3</c:v>
+                  <c:v>1.2638639447127176E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.1253744388464231E-3</c:v>
+                  <c:v>8.7369987077634548E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,6 +510,61 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.0\ \X" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:errBars>
             <c:errBarType val="both"/>
             <c:errValType val="cust"/>
@@ -518,13 +576,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.4284527327757419E-4</c:v>
+                    <c:v>7.8085716315518395E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4.0229710947357377E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.4221288784375595E-4</c:v>
+                    <c:v>8.0705086731356853E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -536,13 +594,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.4284527327757419E-4</c:v>
+                    <c:v>7.8085716315518395E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4.0229710947357377E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.4221288784375595E-4</c:v>
+                    <c:v>8.0705086731356853E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -559,22 +617,21 @@
             </c:spPr>
           </c:errBars>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>GCC!$A$3:$A$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>gzip.c (5kLoC)</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>50</c:v>
+                  <c:v>oggenc.c (50kLoC)</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>gcc.c (500kLoC)</c:v>
                 </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -583,13 +640,13 @@
                 <c:formatCode>0.0000000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>4.914627382325131</c:v>
+                  <c:v>18.709662386115323</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.84085764767462257</c:v>
+                  <c:v>3.5627243541169422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1844144108435839</c:v>
+                  <c:v>2.0804792067732687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -619,80 +676,6 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="1">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t>Source code size</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="1" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1"/>
-                    </a:solidFill>
-                  </a:rPr>
-                  <a:t> (kLoC)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="2400" b="1">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                </a:endParaRPr>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.25170402755090154"/>
-              <c:y val="0.88393516848129838"/>
-            </c:manualLayout>
-          </c:layout>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2400" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -736,7 +719,8 @@
         <c:axId val="417306168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="5"/>
+          <c:max val="25"/>
+          <c:min val="-5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -874,7 +858,7 @@
           <c:yMode val="edge"/>
           <c:x val="0"/>
           <c:y val="1.4117384263137316E-3"/>
-          <c:w val="0.99995963020249912"/>
+          <c:w val="0.86744915960500057"/>
           <c:h val="9.1049939512277953E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -934,6 +918,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1005,13 +990,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>2.2422154538441631E-5</c:v>
+                    <c:v>2.3569511195061986E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.3746970792335064E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8382861150907551E-5</c:v>
+                    <c:v>8.5934817637372109E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1023,13 +1008,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>2.2422154538441631E-5</c:v>
+                    <c:v>2.3569511195061986E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.3746970792335064E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8382861150907551E-5</c:v>
+                    <c:v>8.5934817637372109E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1202,13 +1187,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.1710954531608665E-5</c:v>
+                    <c:v>7.5380452076698681E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.1658710725965246E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.9292831699673542E-5</c:v>
+                    <c:v>7.451163337653383E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1220,13 +1205,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.1710954531608665E-5</c:v>
+                    <c:v>7.5380452076698681E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.1658710725965246E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.9292831699673542E-5</c:v>
+                    <c:v>7.451163337653383E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1394,13 +1379,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.4284527327757419E-4</c:v>
+                    <c:v>7.8085716315518395E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4.0229710947357377E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.4221288784375595E-4</c:v>
+                    <c:v>8.0705086731356853E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1412,13 +1397,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.4284527327757419E-4</c:v>
+                    <c:v>7.8085716315518395E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4.0229710947357377E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.4221288784375595E-4</c:v>
+                    <c:v>8.0705086731356853E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1872,13 +1857,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>2.2422154538441631E-5</c:v>
+                    <c:v>2.3569511195061986E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.3746970792335064E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8382861150907551E-5</c:v>
+                    <c:v>8.5934817637372109E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1890,13 +1875,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>2.2422154538441631E-5</c:v>
+                    <c:v>2.3569511195061986E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.3746970792335064E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.8382861150907551E-5</c:v>
+                    <c:v>8.5934817637372109E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2003,13 +1988,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.1710954531608665E-5</c:v>
+                    <c:v>7.5380452076698681E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.1658710725965246E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.9292831699673542E-5</c:v>
+                    <c:v>7.451163337653383E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2021,13 +2006,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.1710954531608665E-5</c:v>
+                    <c:v>7.5380452076698681E-5</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>8.1658710725965246E-5</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.9292831699673542E-5</c:v>
+                    <c:v>7.451163337653383E-5</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2129,13 +2114,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.4284527327757419E-4</c:v>
+                    <c:v>7.8085716315518395E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4.0229710947357377E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.4221288784375595E-4</c:v>
+                    <c:v>8.0705086731356853E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2147,13 +2132,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>7.4284527327757419E-4</c:v>
+                    <c:v>7.8085716315518395E-4</c:v>
                   </c:pt>
                   <c:pt idx="1">
                     <c:v>4.0229710947357377E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.4221288784375595E-4</c:v>
+                    <c:v>8.0705086731356853E-4</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4175,16 +4160,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>613173</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>2977</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>80963</xdr:colOff>
+      <xdr:colOff>375046</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>136327</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4290,167 +4275,697 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="open"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="open"/>
-      <sheetName val="read"/>
-      <sheetName val="fork"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>linux</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Graphene</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>Graphene-SGX (unbuffered)</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>Graphene-SGX (buffered)</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>64k</v>
-          </cell>
-          <cell r="B2">
-            <v>0.86199999999999999</v>
-          </cell>
-          <cell r="C2">
-            <v>8.2000000000000007E-3</v>
-          </cell>
-          <cell r="D2">
-            <v>3.2757000000000001</v>
-          </cell>
-          <cell r="E2">
-            <v>1.41E-2</v>
-          </cell>
-          <cell r="F2">
-            <v>554</v>
-          </cell>
-          <cell r="G2">
-            <v>0.44159999999999999</v>
-          </cell>
-          <cell r="H2">
-            <v>9.1931999999999992</v>
-          </cell>
-          <cell r="I2">
-            <v>3.9600000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>256k</v>
-          </cell>
-          <cell r="B3">
-            <v>0.88670000000000004</v>
-          </cell>
-          <cell r="C3">
-            <v>8.6999999999999994E-3</v>
-          </cell>
-          <cell r="D3">
-            <v>2.9803000000000002</v>
-          </cell>
-          <cell r="E3">
-            <v>1.7100000000000001E-2</v>
-          </cell>
-          <cell r="F3">
-            <v>2152</v>
-          </cell>
-          <cell r="G3">
-            <v>1.9214</v>
-          </cell>
-          <cell r="H3">
-            <v>8.6533999999999995</v>
-          </cell>
-          <cell r="I3">
-            <v>5.7799999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>1m</v>
-          </cell>
-          <cell r="B4">
-            <v>0.87170000000000003</v>
-          </cell>
-          <cell r="C4">
-            <v>2.2000000000000001E-3</v>
-          </cell>
-          <cell r="D4">
-            <v>2.9973000000000001</v>
-          </cell>
-          <cell r="E4">
-            <v>1.01E-2</v>
-          </cell>
-          <cell r="F4">
-            <v>8545</v>
-          </cell>
-          <cell r="G4">
-            <v>30.892099999999999</v>
-          </cell>
-          <cell r="H4">
-            <v>8.5373999999999999</v>
-          </cell>
-          <cell r="I4">
-            <v>4.8099999999999997E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>4m</v>
-          </cell>
-          <cell r="B5">
-            <v>0.85960000000000003</v>
-          </cell>
-          <cell r="C5">
-            <v>1.8E-3</v>
-          </cell>
-          <cell r="D5">
-            <v>3.3056999999999999</v>
-          </cell>
-          <cell r="E5">
-            <v>2.5600000000000001E-2</v>
-          </cell>
-          <cell r="F5">
-            <v>34123</v>
-          </cell>
-          <cell r="G5">
-            <v>70.222999999999999</v>
-          </cell>
-          <cell r="H5">
-            <v>9.1988000000000003</v>
-          </cell>
-          <cell r="I5">
-            <v>6.1899999999999997E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.42626</cdr:x>
+      <cdr:y>0.32491</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48409</cdr:x>
+      <cdr:y>0.66678</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B3CC12-476B-4610-B927-1290A5B8B5CB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1834664" y="1140020"/>
+          <a:ext cx="248929" cy="1199558"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.65653</cdr:x>
+      <cdr:y>0.67271</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.71438</cdr:x>
+      <cdr:y>0.73719</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B937C04-F85F-4FAC-86BD-005930C4D43F}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2825775" y="2360397"/>
+          <a:ext cx="249013" cy="226236"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88676</cdr:x>
+      <cdr:y>0.7075</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.9426</cdr:x>
+      <cdr:y>0.72362</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D757ACB4-F9C8-467D-AE1F-8928903D5D05}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3816718" y="2482467"/>
+          <a:ext cx="240335" cy="56541"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51418</cdr:x>
+      <cdr:y>0.10779</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.54219</cdr:x>
+      <cdr:y>0.14167</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4878D806-39D6-40A8-BF24-FD33450B6624}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2213077" y="378223"/>
+          <a:ext cx="120547" cy="118864"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:pattFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="wdDnDiag">
+          <a:fgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.53389</cdr:x>
+      <cdr:y>0.0755</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.27231</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A609155B-8A73-4F31-8C7F-A06E22FA4405}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2297905" y="264912"/>
+          <a:ext cx="2006202" cy="690564"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Enclave creation time</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>in Graphene-SGX</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.19779</cdr:x>
+      <cdr:y>0.783</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.287</cdr:x>
+      <cdr:y>0.89413</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCFFCB4A-DBC8-4F06-9D86-78F2EC5721A4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="851297" y="2747368"/>
+          <a:ext cx="383976" cy="389930"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-1</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4753,7 +5268,7 @@
   <dimension ref="A1:M1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4765,24 +5280,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="13" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -4813,11 +5328,11 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>5</v>
+      <c r="A3" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="B3" s="5">
-        <v>0.2169127257</v>
+        <v>0.20635348000000001</v>
       </c>
       <c r="C3" s="6">
         <v>4.8636506569999997E-6</v>
@@ -4828,40 +5343,40 @@
       </c>
       <c r="E3" s="6">
         <f t="shared" ref="E3" si="0">C3/$B3</f>
-        <v>2.2422154538441631E-5</v>
+        <v>2.3569511195061986E-5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.2271303485</v>
+        <v>0.21919371600000001</v>
       </c>
       <c r="G3" s="7">
         <v>1.5555018610000001E-5</v>
       </c>
       <c r="H3" s="6">
         <f>F3/$B3-1</f>
-        <v>4.7104764218081963E-2</v>
+        <v>6.2224470360277007E-2</v>
       </c>
       <c r="I3" s="6">
         <f t="shared" ref="I3" si="1">G3/$B3</f>
-        <v>7.1710954531608665E-5</v>
+        <v>7.5380452076698681E-5</v>
       </c>
       <c r="J3" s="6">
-        <v>1.2829579470000001</v>
+        <v>4.0671574230000003</v>
       </c>
       <c r="K3" s="5">
         <v>1.6113259299999999E-4</v>
       </c>
       <c r="L3" s="6">
         <f>J3/$B3-1</f>
-        <v>4.914627382325131</v>
+        <v>18.709662386115323</v>
       </c>
       <c r="M3" s="6">
         <f t="shared" ref="M3" si="2">K3/$B3</f>
-        <v>7.4284527327757419E-4</v>
+        <v>7.8085716315518395E-4</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>50</v>
+      <c r="A4" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B4" s="5">
         <v>1.1108705219999999</v>
@@ -4878,28 +5393,28 @@
         <v>8.3746970792335064E-5</v>
       </c>
       <c r="F4" s="1">
-        <v>1.119680518</v>
+        <v>1.1249104139999999</v>
       </c>
       <c r="G4" s="6">
         <v>9.0712254610000003E-5</v>
       </c>
       <c r="H4" s="6">
         <f t="shared" ref="H4:H5" si="5">F4/$B4-1</f>
-        <v>7.9307136390105448E-3</v>
+        <v>1.2638639447127176E-2</v>
       </c>
       <c r="I4" s="6">
         <f t="shared" ref="I4" si="6">G4/$B4</f>
         <v>8.1658710725965246E-5</v>
       </c>
       <c r="J4" s="6">
-        <v>2.0449544959999999</v>
+        <v>5.068595985</v>
       </c>
       <c r="K4" s="5">
         <v>4.4689999999999999E-3</v>
       </c>
       <c r="L4" s="6">
         <f t="shared" ref="L4:L5" si="7">J4/$B4-1</f>
-        <v>0.84085764767462257</v>
+        <v>3.5627243541169422</v>
       </c>
       <c r="M4" s="6">
         <f t="shared" ref="M4" si="8">K4/$B4</f>
@@ -4907,11 +5422,11 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>500</v>
+      <c r="A5" s="1" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="5">
-        <v>21.672097000000001</v>
+        <v>17.245629195999999</v>
       </c>
       <c r="C5" s="6">
         <v>1.482E-3</v>
@@ -4922,35 +5437,35 @@
       </c>
       <c r="E5" s="6">
         <f t="shared" ref="E5" si="9">C5/$B5</f>
-        <v>6.8382861150907551E-5</v>
+        <v>8.5934817637372109E-5</v>
       </c>
       <c r="F5" s="1">
-        <v>21.869862999999999</v>
+        <v>17.2606967</v>
       </c>
       <c r="G5" s="6">
         <v>1.2849999999999999E-3</v>
       </c>
       <c r="H5" s="6">
         <f t="shared" si="5"/>
-        <v>9.1253744388464231E-3</v>
+        <v>8.7369987077634548E-4</v>
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5" si="10">G5/$B5</f>
-        <v>5.9292831699673542E-5</v>
+        <v>7.451163337653383E-5</v>
       </c>
       <c r="J5" s="6">
-        <v>69.012938000000005</v>
+        <v>53.124802146</v>
       </c>
       <c r="K5" s="5">
         <v>1.3918099999999999E-2</v>
       </c>
       <c r="L5" s="6">
         <f t="shared" si="7"/>
-        <v>2.1844144108435839</v>
+        <v>2.0804792067732687</v>
       </c>
       <c r="M5" s="6">
         <f t="shared" ref="M5" si="11">K5/$B5</f>
-        <v>6.4221288784375595E-4</v>
+        <v>8.0705086731356853E-4</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -16938,666 +17453,666 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="13" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="10"/>
+      <c r="L2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="14"/>
+      <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>0.69716699999999998</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>1.2999999999999999E-5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>1.8600000000000001E-5</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <v>0.69527799999999995</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>3.0000000000000001E-5</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="11">
         <v>-2.7095000000000001E-3</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="11">
         <v>4.3000000000000002E-5</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>3.1665000000000001</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="11">
         <v>4.2700000000000002E-4</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="11">
         <v>3.5419534000000001</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="11">
         <v>6.1249999999999998E-4</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>0.57027799999999995</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>1.5E-5</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>2.6299999999999999E-5</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="11">
         <v>0.57116699999999998</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <v>1.5589E-3</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>8.8000000000000004E-6</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>0.86777800000000005</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>1.16E-4</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="11">
         <v>0.52167540000000001</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="11">
         <v>2.0340000000000001E-4</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>0.72494400000000003</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>4.5000000000000003E-5</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>6.2100000000000005E-5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>0.723333</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>9.3999999999999994E-5</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>-2.2222000000000001E-3</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <v>1.2970000000000001E-4</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>1.5781670000000001</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <v>2.72E-4</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="11">
         <v>1.1769502000000001</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="11">
         <v>3.7520000000000001E-4</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>14.016166999999999</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>1.5999999999999999E-6</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>14.019166999999999</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <v>2.14E-4</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <v>1.0900000000000001E-5</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <v>25.670722000000001</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="11">
         <v>4.4299999999999998E-4</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="11">
         <v>0.83150800000000002</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="11">
         <v>3.1600000000000002E-5</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="11">
         <v>6.7323890000000004</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="11">
         <v>2.8E-5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="11">
         <v>0</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="11">
         <v>4.1999999999999996E-6</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <v>6.7404440000000001</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="11">
         <v>3.4E-5</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="11">
         <v>1.1965000000000001E-3</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I7" s="11">
         <v>5.1000000000000003E-6</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="11">
         <v>10.862833</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="11">
         <v>3.3100000000000002E-4</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="11">
         <v>0.61351829999999996</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="11">
         <v>4.9200000000000003E-5</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="15">
+      <c r="B8" s="11">
         <v>0.26800000000000002</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="11">
         <v>3.1000000000000001E-5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="11">
         <v>0</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="11">
         <v>1.1569999999999999E-4</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>0.26661099999999999</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="11">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="11">
         <v>-5.1828000000000004E-3</v>
       </c>
-      <c r="I8" s="15">
+      <c r="I8" s="11">
         <v>1.2310000000000001E-4</v>
       </c>
-      <c r="J8" s="15">
+      <c r="J8" s="11">
         <v>1.7319439999999999</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="11">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="11">
         <v>5.4624775999999997</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="11">
         <v>2.0149999999999999E-4</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="11">
         <v>0.754278</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="11">
         <v>1.21E-4</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="11">
         <v>0</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>1.604E-4</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <v>0.752556</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="11">
         <v>1.5300000000000001E-4</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="11">
         <v>-2.2829999999999999E-3</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="11">
         <v>2.028E-4</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="11">
         <v>0.77355600000000002</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="11">
         <v>1.7799999999999999E-4</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="11">
         <v>2.55582E-2</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="11">
         <v>2.3599999999999999E-4</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="15">
+      <c r="B10" s="11">
         <v>3.2637779999999998</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="11">
         <v>1.01E-4</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="11">
         <v>0</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="11">
         <v>3.0899999999999999E-5</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <v>3.270556</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="11">
         <v>1.2E-4</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="11">
         <v>2.0766999999999999E-3</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="11">
         <v>3.68E-5</v>
       </c>
-      <c r="J10" s="15">
+      <c r="J10" s="11">
         <v>4.535444</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="11">
         <v>1.1400000000000001E-4</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="11">
         <v>0.38963009999999998</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="11">
         <v>3.4900000000000001E-5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="15">
+      <c r="B11" s="11">
         <v>5.5461669999999996</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="11">
         <v>3.1999999999999999E-5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="11">
         <v>0</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <v>5.8000000000000004E-6</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="11">
         <v>5.5468330000000003</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="11">
         <v>2.8E-5</v>
       </c>
-      <c r="H11" s="15">
+      <c r="H11" s="11">
         <v>1.2010000000000001E-4</v>
       </c>
-      <c r="I11" s="15">
+      <c r="I11" s="11">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="11">
         <v>6.7720000000000002</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="11">
         <v>2.9300000000000002E-4</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="11">
         <v>0.22102350000000001</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="11">
         <v>5.2800000000000003E-5</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="11">
         <v>2.7158890000000002</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="11">
         <v>1.4100000000000001E-4</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="11">
         <v>0</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <v>5.1900000000000001E-5</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="11">
         <v>2.7170559999999999</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="11">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="H12" s="15">
+      <c r="H12" s="11">
         <v>4.2969999999999998E-4</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="11">
         <v>3.5299999999999997E-5</v>
       </c>
-      <c r="J12" s="15">
+      <c r="J12" s="11">
         <v>6.3401110000000003</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="11">
         <v>3.01E-4</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="11">
         <v>1.3344514000000001</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="11">
         <v>1.108E-4</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="11">
         <v>0.62816700000000003</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="11">
         <v>7.8999999999999996E-5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="11">
         <v>1.2579999999999999E-4</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="11">
         <v>0.61966699999999997</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="11">
         <v>2.1999999999999999E-5</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="11">
         <v>-1.3531400000000001E-2</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="11">
         <v>3.4999999999999997E-5</v>
       </c>
-      <c r="J13" s="15">
+      <c r="J13" s="11">
         <v>1.652056</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="11">
         <v>3.8200000000000002E-4</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="11">
         <v>1.6299631000000001</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="11">
         <v>6.0809999999999998E-4</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="11">
         <v>0.16250000000000001</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="11">
         <v>4.6999999999999997E-5</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="11">
         <v>0</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="11">
         <v>2.8919999999999998E-4</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="11">
         <v>0.16377800000000001</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="11">
         <v>4.3999999999999999E-5</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="11">
         <v>7.8645999999999994E-3</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="11">
         <v>2.7080000000000002E-4</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J14" s="11">
         <v>1.7726109999999999</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="11">
         <v>4.35E-4</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="11">
         <v>9.9083754000000006</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="11">
         <v>2.6768999999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="11">
         <v>0.69955599999999996</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="11">
         <v>1.222E-3</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>1.7468E-3</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="11">
         <v>0.69599999999999995</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="11">
         <v>6.5499999999999998E-4</v>
       </c>
-      <c r="H15" s="15">
+      <c r="H15" s="11">
         <v>-5.0832000000000004E-3</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="11">
         <v>9.3630000000000004E-4</v>
       </c>
-      <c r="J15" s="15">
+      <c r="J15" s="11">
         <v>2.8433329999999999</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="11">
         <v>3.8509999999999998E-3</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="11">
         <v>3.0644822999999999</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="11">
         <v>5.5049000000000001E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="11">
         <v>0.404889</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="11">
         <v>1.1900000000000001E-4</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="11">
         <v>0</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="11">
         <v>2.9389999999999999E-4</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="11">
         <v>0.41527799999999998</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="11">
         <v>3.97E-4</v>
       </c>
-      <c r="H16" s="15">
+      <c r="H16" s="11">
         <v>2.5658899999999998E-2</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="11">
         <v>9.8050000000000003E-4</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="11">
         <v>0.57211100000000004</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="11">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="11">
         <v>0.41300700000000001</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="11">
         <v>2.8749000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="15">
+      <c r="B17" s="11">
         <v>0.39500000000000002</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="11">
         <v>7.2400000000000003E-4</v>
       </c>
-      <c r="D17" s="15">
+      <c r="D17" s="11">
         <v>0</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="11">
         <v>1.8328999999999999E-3</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="11">
         <v>0.38483299999999998</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="11">
         <v>5.8100000000000003E-4</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="11">
         <v>-2.57392E-2</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="11">
         <v>1.4709E-3</v>
       </c>
-      <c r="J17" s="15">
+      <c r="J17" s="11">
         <v>0.58799999999999997</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="11">
         <v>1.3240000000000001E-3</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="11">
         <v>0.48860759999999998</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="11">
         <v>3.3519000000000001E-3</v>
       </c>
     </row>
@@ -29436,27 +29951,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="13" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
     </row>
     <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -29484,166 +29999,166 @@
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="15">
+      <c r="B3" s="11">
         <v>1.04444E-2</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="11">
         <v>1.5E-5</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="11">
         <v>1.4362000000000001E-3</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <v>1.0466666669999999E-2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="11">
         <v>7.6000000000000001E-6</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="11">
         <v>2.1318999999999999E-3</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I3" s="11">
         <v>7.2420000000000004E-4</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="11">
         <v>1.6866699999999998E-2</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="11">
         <v>5.3999999999999998E-5</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="11">
         <v>0.61490049999999996</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="11">
         <v>5.1462000000000001E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="15">
+      <c r="B4" s="11">
         <v>0.1515</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="11">
         <v>1.883E-4</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="11">
         <v>0</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="11">
         <v>1.2427E-3</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="11">
         <v>0.14923333329999999</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="11">
         <v>9.0699999999999996E-5</v>
       </c>
-      <c r="H4" s="15">
+      <c r="H4" s="11">
         <v>-1.4961500000000001E-2</v>
       </c>
-      <c r="I4" s="15">
+      <c r="I4" s="11">
         <v>5.9880000000000003E-4</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="11">
         <v>0.16233330000000001</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="11">
         <v>4.4689999999999999E-3</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="11">
         <v>7.1507200000000007E-2</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="11">
         <v>2.9498300000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="11">
         <v>1.8072333</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="11">
         <v>1.8072333</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="11">
         <v>0</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>1</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>1.8055000000000001</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="11">
         <v>3.1514999999999998E-3</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>-9.5909999999999995E-4</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="11">
         <v>1.7438E-3</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="11">
         <v>2.1199444999999999</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="11">
         <v>1.3918E-2</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="11">
         <v>0.1730331</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="11">
         <v>7.7013000000000003E-3</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="11">
         <v>13.067107099999999</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="11">
         <v>1.5365699999999999E-2</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="11">
         <v>0</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="11">
         <v>1.1758999999999999E-3</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>13.692272729999999</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G6" s="11">
         <v>2.10054E-2</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="11">
         <v>4.7842700000000002E-2</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I6" s="11">
         <v>1.6075E-3</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="11">
         <v>19.737766700000002</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="11">
         <v>3.0557000000000001E-2</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="11">
         <v>0.51049239999999996</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="11">
         <v>2.3384E-3</v>
       </c>
     </row>
@@ -41606,8 +42121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="O35" sqref="O35"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
